--- a/biology/Médecine/Nystatine/Nystatine.xlsx
+++ b/biology/Médecine/Nystatine/Nystatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La nystatine est un médicament polyène antimycosique dont la structure est très proche de l'Amphotéricine B. La nystatine est utilisée par voie orale pour la décontamination intestinale des candidoses[2].
+La nystatine est un médicament polyène antimycosique dont la structure est très proche de l'Amphotéricine B. La nystatine est utilisée par voie orale pour la décontamination intestinale des candidoses.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Spécialités existantes en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auricularum (voie auriculaire)
 Mycostatine (Voie orale)
@@ -545,7 +559,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Des infections à Candida cutanées, vaginales, des muqueuses et de l'œsophage peuvent être traitées par la nystatine. Les Cryptococcus (en) sont également sensibles à la nystatine.
 La nystatine est souvent utilisée en prophylaxie chez des patients à haut risque pour des mycoses, telles les patients sidéens à faible taux de CD4+ ainsi que les patients sous chimiothérapie.
@@ -578,9 +594,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nystatine est découverte en 1950 par Rachel Fuller Brown et Elizabeth Lee Hazen[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nystatine est découverte en 1950 par Rachel Fuller Brown et Elizabeth Lee Hazen.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nystatine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nystatine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
